--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -208,10 +208,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -77,7 +77,7 @@
     <t>LOINC#8339-4</t>
   </si>
   <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period, Attachment, Reference</t>
   </si>
   <si>
     <t>Ocupaciones</t>
